--- a/Capitulo000_Documento/00_Apunte/PlanificacionDeTemas.xlsx
+++ b/Capitulo000_Documento/00_Apunte/PlanificacionDeTemas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmaldonado\Desktop\TallerDisenioSoftware\NodoTecnologico\04_Modulo02_JavaScript\Capitulo000_Documento\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmaldonado\Desktop\Modulo02_JavaScript\Capitulo000_Documento\00_Apunte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58D26FCD-3DB1-4474-9AF4-663819F19FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D32EC5F9-795B-4E79-A0DA-A6A685A0D7F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34140" yWindow="1800" windowWidth="19515" windowHeight="11280" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planificados_NODO" sheetId="2" r:id="rId1"/>
@@ -1255,8 +1255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2260,8 +2260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
